--- a/pc/public/import_template/esw/card_consume.xlsx
+++ b/pc/public/import_template/esw/card_consume.xlsx
@@ -42,13 +42,13 @@
     <t xml:space="preserve">&lt;%=comment.give_amt%&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;%=comment.integral%&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;%=comment.balance%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=comment.give_balance%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=comment.integral%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=comment.rem%&gt;</t>
